--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1501,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1536,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1594,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2628,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2663,28 +2675,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2721,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3177,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3212,28 +3224,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3270,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3541,10 +3553,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3588,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3634,28 +3646,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3830,10 +3842,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3877,28 +3889,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3923,28 +3935,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4061,10 +4073,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4108,28 +4120,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4154,28 +4166,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4292,10 +4304,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4339,28 +4351,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4385,28 +4397,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4552,10 +4564,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4599,28 +4611,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4645,28 +4657,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4783,10 +4795,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4830,28 +4842,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4876,28 +4888,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +4997,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5044,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5090,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5245,10 +5257,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5292,28 +5304,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5338,28 +5350,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5476,10 +5488,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5523,28 +5535,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5569,28 +5581,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5678,10 +5690,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5725,28 +5737,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5771,28 +5783,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6053,10 +6065,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6100,28 +6112,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6146,28 +6158,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6267,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6302,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6360,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6440,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6533,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
